--- a/SiteLists/NewsLinks.xlsx
+++ b/SiteLists/NewsLinks.xlsx
@@ -424,140 +424,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.em.com.br/app/noticia/politica/2021/04/27/interna_politica,1260907/cpi-defendendo-o-pai-flavio-bolsonaro-ataca-renan-e-chama-pacheco-de-ing.shtml</t>
+          <t>https://www.dci.com.br/financas/loterias/mega-sena/acumulada-mega-sena-2366-tem-premio-de-28-milhoes-na-quarta/124598/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www1.folha.uol.com.br/poder/2021/04/em-derrota-para-bolsonaro-cpi-da-covid-e-instalada-com-minoria-governista-e-renan-na-relatoria.shtml</t>
+          <t>https://www.metropoles.com/distrito-federal/dois-apostadores-do-df-levam-r-60-mil-com-5-acertos-na-mega-sena</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://noticias.uol.com.br/saude/ultimas-noticias/redacao/2021/04/27/pesquisadores-culpam-bolsonaro-por-crise-na-covid-e-dizem-ser-ignorados.htm</t>
+          <t>https://www.correiobraziliense.com.br/cidades-df/2021/04/4920315-aposta-feita-no-conjunto-nacional-ganha-rs-60-mil-na-mega-sena-de-sabado.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.correiobraziliense.com.br/politica/2021/04/4920518-marco-aurelio-envia-a-pgr-noticia-crime-contra-bolsonaro-por-cheques-de-queiroz.html</t>
+          <t>https://sfnoticias.com.br/aposta-feita-na-regiao-serrana-acerta-cinco-numeros-da-mega-sena-e-fatura-mais-de-r-60-mil</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/politica/noticia/2021/04/27/flavio-bolsonaro-fala-em-ingratidao-de-pacheco-por-permitir-cpi-da-covid.ghtml</t>
+          <t>https://omunicipio.com.br/aposta-de-brusque-acerta-quina-da-mega-sena-e-leva-mais-de-r-120-mil/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.correiobraziliense.com.br/politica/2021/04/4920520-critico-do-isolamento-flavio-bolsonaro-reclama-que-cpi-pode-causar-aglomeracoes.html</t>
+          <t>https://bnldata.com.br/ninguem-acerta-as-seis-dezenas-da-mega-sena-e-premio-vai-a-r-28-milhoes/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://noticias.uol.com.br/politica/ultimas-noticias/2021/04/27/f-bolsonaro-mulheres-nao-fazem-questao-de-estar-em-cpi-senadora-rebate.htm</t>
+          <t>https://fdr.com.br/2021/04/26/resultado-mega-sena-confira-dezenas-sorteadas-no-premio-de-r-22-milhoes/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.oantagonista.com/brasil/bolsonaro-se-reune-com-ministros-do-tcu-no-dia-de-instalacao-da-cpi-da-covid/</t>
+          <t>https://www.mixvale.com.br/2021/04/26/ninguem-acerta-e-premio-da-mega-sena-acumula-e-pagara-r-28-milhoes/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://noticias.uol.com.br/politica/ultimas-noticias/2021/04/27/cpi-e-palanque-politico-com-caixoes-de-400-mil-mortes-diz-f-bolsonaro.htm</t>
+          <t>https://www.dci.com.br/financas/loterias/mega-sena/mega-sena-2366-sorteia-premio-acumulado-em-28-milhoes-na-quarta/124066/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.poder360.com.br/congresso/quantas-vacinas-essa-cpi-vai-aplicar-questiona-flavio-bolsonaro/</t>
+          <t>https://noticiasconcursos.com.br/mega-sena-concurso-2-365-premio-vai-a-r-28-milhoes/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.oantagonista.com/brasil/maia-lamenta-atuacao-do-dem-favoravel-a-bolsonaro-na-cpi/</t>
+          <t>https://imirante.com/servicos/brasil/noticias/2021/04/25/nenhuma-aposta-acerta-a-mega-sena-e-premio-acumula-em-r-28-milhoes.shtml</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.gazetadopovo.com.br/republica/breves/flavio-bolsonaro-diz-que-por-cpi-seu-partido-pode-deixar-bloco-no-senado/</t>
+          <t>https://www.acidadeon.com/ribeiraopreto/economia/NOT,0,0,1608143,mega-sena-acumula-e-premio-sobe-para-r-28-milhoes.aspx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.otempo.com.br/politica/flavio-bolsonaro-diz-que-pacheco-foi-irresponsavel-e-ingrato-ao-permitir-a-cpi-1.2477747</t>
+          <t>https://ndmais.com.br/loterias/mega-sena-acumula-apos-ninguem-acertar-as-seis-dezenas-saiba-qual-o-premio/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.correiobraziliense.com.br/politica/2021/04/4920503-pacheco-foi-ingrato-com-bolsonaro-ao-instalar-cpi-da-covid-diz-flavio.html</t>
+          <t>https://ricmais.com.br/noticias/loterias/premio-de-r-28-milhoes-acumula-na-mega-sena-no-sabado-24/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.redebrasilatual.com.br/politica/2021/04/haddad-brasil-de-bolsonaro-e-visto-pelo-mundo-como-uma-aberracao/</t>
+          <t>https://www.acusticafm.com.br/noticias/41173/mega-sena-2365-veja-os-numeros-sorteados-neste-sabado-24-de-abril.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://veja.abril.com.br/blog/maquiavel/cpi-da-covid-flavio-bolsonaro-sobe-o-tom-contra-rodrigo-pacheco/</t>
+          <t>http://www.engeplus.com.br/noticia/santa-catarina/2021/mega-sena-acumula-em-r-28-milhoes-aposta-de-brusque-acerta-quina-e-leva-mais-de-r-120-mil</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.em.com.br/app/noticia/politica/2021/04/27/interna_politica,1260881/com-braco-na-tipoia-flavio-vai-a-cpi-da-covid-defender-bolsonaro.shtml</t>
+          <t>https://www.enfoquems.com.br/mega-sena-acumula-novamente-e-premio-sobe-para-r-28-milhoes/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.oantagonista.com/brasil/flavio-bolsonaro-articula-para-tirar-republicanos-e-pp-do-bloco-com-o-mdb/</t>
+          <t>https://www.bemparana.com.br/noticia/mega-sena-acumula-e-pode-pagar-r-28-milhoes-na-proxima-quarta</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.metropoles.com/brasil/politica-brasil/senado-flavio-bolsonaro-pedira-para-republicanos-deixar-bloco-do-mdb</t>
+          <t>https://agoralitoral.com.br/noticias/oito-apostas-do-litoral-acertam-a-quadra-da-mega-sena-2/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://br.noticias.yahoo.com/flavio-bolsonaro-tenta-impedir-renan-calheiros-como-relator-da-cpi-da-covid-145151512.html</t>
+          <t>https://www.emaisgoias.com.br/mega-sena-acumula-e-pode-pagar-r-28-milhoes-na-quarta/</t>
         </is>
       </c>
     </row>
